--- a/Data/Women 2017.xlsx
+++ b/Data/Women 2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A8A7D0-1E99-45CF-A9BD-012374790FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1889C9-B4C9-46A2-A08F-641924AF4688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Women's earnings</t>
   </si>
@@ -86,6 +86,102 @@
   </si>
   <si>
     <t>Men's earnings</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Education and health services</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Retail trade</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Most common for</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Stock clerks and order fillers</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Production workers, all others</t>
+  </si>
+  <si>
+    <t>Electricians</t>
+  </si>
+  <si>
+    <t>Transportation and utilities</t>
+  </si>
+  <si>
+    <t>Automotive service technicians and mechanics</t>
+  </si>
+  <si>
+    <t>Wholesale trade</t>
+  </si>
+  <si>
+    <t>Sales representatives, wholesale and manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitalities</t>
+  </si>
+  <si>
+    <t>Grounds maintenance workers</t>
+  </si>
+  <si>
+    <t>Chief executives</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Carpenters</t>
+  </si>
+  <si>
+    <t>Cooks</t>
+  </si>
+  <si>
+    <t>Janitors and building cleaners</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Software developers, applications and systems software</t>
+  </si>
+  <si>
+    <t>Hand laborers and freight, stock, and material movers</t>
+  </si>
+  <si>
+    <t>Construction laborers</t>
+  </si>
+  <si>
+    <t>Driver/sales workers and truck drivers</t>
+  </si>
+  <si>
+    <t>Women</t>
   </si>
 </sst>
 </file>
@@ -98,7 +194,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,6 +203,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -135,15 +236,19 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,30 +593,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -520,9 +636,15 @@
       <c r="C2" s="3">
         <v>1139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -531,9 +653,15 @@
       <c r="C3" s="3">
         <v>1260</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -542,9 +670,15 @@
       <c r="C4" s="3">
         <v>852</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -553,9 +687,15 @@
       <c r="C5" s="3">
         <v>583</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -564,9 +704,15 @@
       <c r="C6" s="3">
         <v>712</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -575,9 +721,15 @@
       <c r="C7" s="3">
         <v>1629</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -586,9 +738,15 @@
       <c r="C8" s="3">
         <v>891</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -597,9 +755,15 @@
       <c r="C9" s="3">
         <v>493</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -608,9 +772,15 @@
       <c r="C10" s="3">
         <v>1389</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -619,9 +789,15 @@
       <c r="C11" s="3">
         <v>652</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -630,9 +806,15 @@
       <c r="C12" s="3">
         <v>987</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -641,9 +823,15 @@
       <c r="C13" s="3">
         <v>780</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -652,9 +840,15 @@
       <c r="C14" s="3">
         <v>704</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -663,9 +857,15 @@
       <c r="C15" s="3">
         <v>508</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -674,9 +874,15 @@
       <c r="C16" s="3">
         <v>743</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -685,9 +891,15 @@
       <c r="C17" s="3">
         <v>520</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
@@ -696,9 +908,15 @@
       <c r="C18" s="3">
         <v>533</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3">
@@ -707,9 +925,15 @@
       <c r="C19" s="3">
         <v>1719</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
@@ -718,9 +942,15 @@
       <c r="C20" s="3">
         <v>1226</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3">
@@ -729,9 +959,256 @@
       <c r="C21" s="3">
         <v>935</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5">
+        <v>538</v>
+      </c>
+      <c r="C22" s="5">
+        <v>571</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5">
+        <v>570</v>
+      </c>
+      <c r="C23" s="5">
+        <v>716</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="5">
+        <v>847</v>
+      </c>
+      <c r="C24" s="5">
+        <v>974</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5">
+        <v>605</v>
+      </c>
+      <c r="C25" s="5">
+        <v>764</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5">
+        <v>956</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1222</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5">
+        <v>441</v>
+      </c>
+      <c r="C27" s="5">
+        <v>526</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1920</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2415</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5">
+        <v>594</v>
+      </c>
+      <c r="C29" s="5">
+        <v>789</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5">
+        <v>436</v>
+      </c>
+      <c r="C30" s="5">
+        <v>481</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5">
+        <v>481</v>
+      </c>
+      <c r="C31" s="5">
+        <v>574</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1543</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1863</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
+        <v>500</v>
+      </c>
+      <c r="C33" s="5">
+        <v>595</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5">
+        <v>638</v>
+      </c>
+      <c r="C34" s="5">
+        <v>667</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5">
+        <v>589</v>
+      </c>
+      <c r="C35" s="5">
+        <v>807</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Women 2017.xlsx
+++ b/Data/Women 2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1889C9-B4C9-46A2-A08F-641924AF4688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADFE0F-D204-43CB-9AAB-6BA1CBD9FAB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>Women's earnings</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Sales representatives, wholesale and manufacturing</t>
-  </si>
-  <si>
-    <t>Leisure and hospitalities</t>
   </si>
   <si>
     <t>Grounds maintenance workers</t>
@@ -596,7 +593,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -657,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -674,7 +671,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -691,7 +688,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -759,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -793,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -810,7 +807,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -827,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -861,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -878,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -895,7 +892,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -912,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -929,7 +926,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -946,7 +943,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -963,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1053,7 +1050,7 @@
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5">
         <v>441</v>
@@ -1062,7 +1059,7 @@
         <v>526</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>34</v>
@@ -1070,7 +1067,7 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5">
         <v>1920</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5">
         <v>594</v>
@@ -1096,7 +1093,7 @@
         <v>789</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>34</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5">
         <v>436</v>
@@ -1113,7 +1110,7 @@
         <v>481</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>34</v>
@@ -1121,7 +1118,7 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5">
         <v>481</v>
@@ -1138,7 +1135,7 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="5">
         <v>1543</v>
@@ -1147,7 +1144,7 @@
         <v>1863</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5">
         <v>500</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5">
         <v>638</v>
@@ -1181,7 +1178,7 @@
         <v>667</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>34</v>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5">
         <v>589</v>
